--- a/team_specific_matrix/North Dakota_A.xlsx
+++ b/team_specific_matrix/North Dakota_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1920668058455115</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C2">
-        <v>0.5386221294363257</v>
+        <v>0.543918918918919</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05845511482254697</v>
+        <v>0.05912162162162162</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1377870563674322</v>
+        <v>0.1334459459459459</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07306889352818371</v>
+        <v>0.07432432432432433</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007272727272727273</v>
+        <v>0.005865102639296188</v>
       </c>
       <c r="C3">
-        <v>0.03272727272727273</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09454545454545454</v>
+        <v>0.08797653958944282</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7418181818181818</v>
+        <v>0.750733137829912</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1236363636363636</v>
+        <v>0.126099706744868</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1449275362318841</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5797101449275363</v>
+        <v>0.5949367088607594</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2753623188405797</v>
+        <v>0.2784810126582278</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07277628032345014</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008086253369272238</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="E6">
-        <v>0.002695417789757413</v>
+        <v>0.002252252252252252</v>
       </c>
       <c r="F6">
-        <v>0.07277628032345014</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3180592991913747</v>
+        <v>0.3018018018018018</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01617250673854448</v>
+        <v>0.01576576576576576</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1671159029649596</v>
+        <v>0.1644144144144144</v>
       </c>
       <c r="R6">
-        <v>0.07277628032345014</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="S6">
-        <v>0.2695417789757412</v>
+        <v>0.2882882882882883</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1205211726384365</v>
+        <v>0.1198910081743869</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01302931596091205</v>
+        <v>0.0108991825613079</v>
       </c>
       <c r="E7">
-        <v>0.003257328990228013</v>
+        <v>0.002724795640326975</v>
       </c>
       <c r="F7">
-        <v>0.04234527687296417</v>
+        <v>0.04632152588555858</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1661237785016287</v>
+        <v>0.1689373297002725</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.003257328990228013</v>
+        <v>0.008174386920980926</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1889250814332248</v>
+        <v>0.1907356948228883</v>
       </c>
       <c r="R7">
-        <v>0.1074918566775244</v>
+        <v>0.1008174386920981</v>
       </c>
       <c r="S7">
-        <v>0.3550488599348534</v>
+        <v>0.3514986376021799</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09923664122137404</v>
+        <v>0.09619450317124736</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02162849872773537</v>
+        <v>0.02219873150105708</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08142493638676845</v>
+        <v>0.08033826638477801</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1768447837150127</v>
+        <v>0.1691331923890063</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01272264631043257</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1857506361323155</v>
+        <v>0.1913319238900634</v>
       </c>
       <c r="R8">
-        <v>0.1145038167938931</v>
+        <v>0.1088794926004228</v>
       </c>
       <c r="S8">
-        <v>0.3078880407124682</v>
+        <v>0.3202959830866808</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09293680297397769</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03345724907063197</v>
+        <v>0.02616279069767442</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08550185873605948</v>
+        <v>0.07848837209302326</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1524163568773234</v>
+        <v>0.1598837209302326</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01858736059479554</v>
+        <v>0.02034883720930233</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1672862453531599</v>
+        <v>0.1540697674418605</v>
       </c>
       <c r="R9">
-        <v>0.1189591078066914</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="S9">
-        <v>0.3308550185873606</v>
+        <v>0.3459302325581395</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09258406264394288</v>
+        <v>0.09592592592592593</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01704283740211884</v>
+        <v>0.01629629629629629</v>
       </c>
       <c r="E10">
-        <v>0.0009212344541685859</v>
+        <v>0.0007407407407407407</v>
       </c>
       <c r="F10">
-        <v>0.06080147397512667</v>
+        <v>0.06148148148148148</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2478120681713496</v>
+        <v>0.2455555555555556</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02533394748963611</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2017503454629203</v>
+        <v>0.2055555555555555</v>
       </c>
       <c r="R10">
-        <v>0.0787655458314141</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="S10">
-        <v>0.2749884845693229</v>
+        <v>0.2707407407407407</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1370558375634518</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07614213197969544</v>
+        <v>0.07872340425531915</v>
       </c>
       <c r="K11">
-        <v>0.1802030456852792</v>
+        <v>0.1787234042553192</v>
       </c>
       <c r="L11">
-        <v>0.5989847715736041</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007614213197969543</v>
+        <v>0.008510638297872341</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7907949790794979</v>
+        <v>0.7929824561403509</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1464435146443515</v>
+        <v>0.1508771929824561</v>
       </c>
       <c r="K12">
-        <v>0.01255230125523013</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="L12">
-        <v>0.02510460251046025</v>
+        <v>0.02456140350877193</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02510460251046025</v>
+        <v>0.02105263157894737</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01176470588235294</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="G13">
-        <v>0.7764705882352941</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1882352941176471</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02352941176470588</v>
+        <v>0.01904761904761905</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03267973856209151</v>
+        <v>0.02638522427440633</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2026143790849673</v>
+        <v>0.2005277044854881</v>
       </c>
       <c r="I15">
-        <v>0.05555555555555555</v>
+        <v>0.0554089709762533</v>
       </c>
       <c r="J15">
-        <v>0.3856209150326798</v>
+        <v>0.3693931398416886</v>
       </c>
       <c r="K15">
-        <v>0.0718954248366013</v>
+        <v>0.0633245382585752</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0130718954248366</v>
+        <v>0.01846965699208443</v>
       </c>
       <c r="N15">
-        <v>0.00326797385620915</v>
+        <v>0.002638522427440633</v>
       </c>
       <c r="O15">
-        <v>0.04248366013071896</v>
+        <v>0.05277044854881267</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1928104575163399</v>
+        <v>0.2110817941952507</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01655629139072848</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1986754966887417</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I16">
-        <v>0.1026490066225166</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="J16">
-        <v>0.3973509933774834</v>
+        <v>0.4327956989247312</v>
       </c>
       <c r="K16">
-        <v>0.09602649006622517</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03642384105960265</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="N16">
-        <v>0.003311258278145695</v>
+        <v>0.002688172043010753</v>
       </c>
       <c r="O16">
-        <v>0.06622516556291391</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.08278145695364239</v>
+        <v>0.07795698924731183</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02024291497975709</v>
+        <v>0.01841820151679307</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2267206477732794</v>
+        <v>0.2275189599133261</v>
       </c>
       <c r="I17">
-        <v>0.08502024291497975</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="J17">
-        <v>0.4399460188933873</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="K17">
-        <v>0.08636977058029689</v>
+        <v>0.0866738894907909</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02024291497975709</v>
+        <v>0.02058504875406284</v>
       </c>
       <c r="N17">
-        <v>0.001349527665317139</v>
+        <v>0.001083423618634886</v>
       </c>
       <c r="O17">
-        <v>0.0553306342780027</v>
+        <v>0.05850487540628386</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06477732793522267</v>
+        <v>0.06608884073672806</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02564102564102564</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.188034188034188</v>
+        <v>0.1839622641509434</v>
       </c>
       <c r="I18">
-        <v>0.07407407407407407</v>
+        <v>0.06839622641509434</v>
       </c>
       <c r="J18">
-        <v>0.4814814814814815</v>
+        <v>0.4834905660377358</v>
       </c>
       <c r="K18">
-        <v>0.09971509971509972</v>
+        <v>0.09905660377358491</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0170940170940171</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N18">
-        <v>0.002849002849002849</v>
+        <v>0.002358490566037736</v>
       </c>
       <c r="O18">
-        <v>0.05982905982905983</v>
+        <v>0.0589622641509434</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05128205128205128</v>
+        <v>0.05660377358490566</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02127659574468085</v>
+        <v>0.01863684771033014</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2360372340425532</v>
+        <v>0.2300319488817891</v>
       </c>
       <c r="I19">
-        <v>0.07313829787234043</v>
+        <v>0.08093716719914804</v>
       </c>
       <c r="J19">
-        <v>0.3896276595744681</v>
+        <v>0.3940362087326943</v>
       </c>
       <c r="K19">
-        <v>0.09906914893617021</v>
+        <v>0.09531416400425985</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02992021276595745</v>
+        <v>0.02928647497337593</v>
       </c>
       <c r="N19">
-        <v>0.0006648936170212766</v>
+        <v>0.001064962726304579</v>
       </c>
       <c r="O19">
-        <v>0.0598404255319149</v>
+        <v>0.05644302449414271</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09042553191489362</v>
+        <v>0.09424920127795527</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/North Dakota_A.xlsx
+++ b/team_specific_matrix/North Dakota_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1891891891891892</v>
+        <v>0.1897106109324759</v>
       </c>
       <c r="C2">
-        <v>0.543918918918919</v>
+        <v>0.5466237942122186</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05912162162162162</v>
+        <v>0.05627009646302251</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1334459459459459</v>
+        <v>0.135048231511254</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07432432432432433</v>
+        <v>0.07234726688102894</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005865102639296188</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C3">
-        <v>0.02932551319648094</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08797653958944282</v>
+        <v>0.08611111111111111</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.750733137829912</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.126099706744868</v>
+        <v>0.1277777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1265822784810127</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5949367088607594</v>
+        <v>0.6049382716049383</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2784810126582278</v>
+        <v>0.2716049382716049</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07657657657657657</v>
+        <v>0.07306889352818371</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006756756756756757</v>
+        <v>0.006263048016701462</v>
       </c>
       <c r="E6">
-        <v>0.002252252252252252</v>
+        <v>0.00208768267223382</v>
       </c>
       <c r="F6">
-        <v>0.06756756756756757</v>
+        <v>0.06889352818371608</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3018018018018018</v>
+        <v>0.2964509394572025</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01576576576576576</v>
+        <v>0.01670146137787056</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1644144144144144</v>
+        <v>0.1711899791231733</v>
       </c>
       <c r="R6">
-        <v>0.07657657657657657</v>
+        <v>0.07933194154488518</v>
       </c>
       <c r="S6">
-        <v>0.2882882882882883</v>
+        <v>0.2860125260960334</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1198910081743869</v>
+        <v>0.1171875</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0108991825613079</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E7">
-        <v>0.002724795640326975</v>
+        <v>0.002604166666666667</v>
       </c>
       <c r="F7">
-        <v>0.04632152588555858</v>
+        <v>0.046875</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1689373297002725</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008174386920980926</v>
+        <v>0.0078125</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1907356948228883</v>
+        <v>0.1953125</v>
       </c>
       <c r="R7">
-        <v>0.1008174386920981</v>
+        <v>0.1015625</v>
       </c>
       <c r="S7">
-        <v>0.3514986376021799</v>
+        <v>0.3515625</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09619450317124736</v>
+        <v>0.09362934362934362</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02219873150105708</v>
+        <v>0.02123552123552123</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08033826638477801</v>
+        <v>0.07625482625482626</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1691331923890063</v>
+        <v>0.1708494208494208</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01162790697674419</v>
+        <v>0.01061776061776062</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1913319238900634</v>
+        <v>0.1988416988416988</v>
       </c>
       <c r="R8">
-        <v>0.1088794926004228</v>
+        <v>0.1090733590733591</v>
       </c>
       <c r="S8">
-        <v>0.3202959830866808</v>
+        <v>0.3194980694980695</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09302325581395349</v>
+        <v>0.09254498714652956</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02616279069767442</v>
+        <v>0.02313624678663239</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07848837209302326</v>
+        <v>0.08740359897172237</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1598837209302326</v>
+        <v>0.1670951156812339</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02034883720930233</v>
+        <v>0.01799485861182519</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1540697674418605</v>
+        <v>0.1568123393316195</v>
       </c>
       <c r="R9">
-        <v>0.1220930232558139</v>
+        <v>0.1182519280205656</v>
       </c>
       <c r="S9">
-        <v>0.3459302325581395</v>
+        <v>0.3367609254498715</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09592592592592593</v>
+        <v>0.0926812585499316</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01629629629629629</v>
+        <v>0.01538987688098495</v>
       </c>
       <c r="E10">
-        <v>0.0007407407407407407</v>
+        <v>0.0006839945280437756</v>
       </c>
       <c r="F10">
-        <v>0.06148148148148148</v>
+        <v>0.06121751025991792</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2455555555555556</v>
+        <v>0.2523939808481532</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02592592592592593</v>
+        <v>0.02735978112175103</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2055555555555555</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="R10">
-        <v>0.07777777777777778</v>
+        <v>0.07900136798905609</v>
       </c>
       <c r="S10">
-        <v>0.2707407407407407</v>
+        <v>0.265389876880985</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1382978723404255</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07872340425531915</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="K11">
-        <v>0.1787234042553192</v>
+        <v>0.1727642276422764</v>
       </c>
       <c r="L11">
-        <v>0.5957446808510638</v>
+        <v>0.6036585365853658</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008510638297872341</v>
+        <v>0.01016260162601626</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7929824561403509</v>
+        <v>0.7913907284768212</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1508771929824561</v>
+        <v>0.1556291390728477</v>
       </c>
       <c r="K12">
-        <v>0.01052631578947368</v>
+        <v>0.009933774834437087</v>
       </c>
       <c r="L12">
-        <v>0.02456140350877193</v>
+        <v>0.02317880794701987</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02105263157894737</v>
+        <v>0.01986754966887417</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.009523809523809525</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="G13">
-        <v>0.7238095238095238</v>
+        <v>0.7168141592920354</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2476190476190476</v>
+        <v>0.2566371681415929</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01904761904761905</v>
+        <v>0.01769911504424779</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02638522427440633</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2005277044854881</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="I15">
-        <v>0.0554089709762533</v>
+        <v>0.06038647342995169</v>
       </c>
       <c r="J15">
-        <v>0.3693931398416886</v>
+        <v>0.3671497584541063</v>
       </c>
       <c r="K15">
-        <v>0.0633245382585752</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01846965699208443</v>
+        <v>0.01690821256038647</v>
       </c>
       <c r="N15">
-        <v>0.002638522427440633</v>
+        <v>0.002415458937198068</v>
       </c>
       <c r="O15">
-        <v>0.05277044854881267</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2110817941952507</v>
+        <v>0.2101449275362319</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01612903225806452</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1935483870967742</v>
+        <v>0.1908396946564886</v>
       </c>
       <c r="I16">
-        <v>0.09677419354838709</v>
+        <v>0.09414758269720101</v>
       </c>
       <c r="J16">
-        <v>0.4327956989247312</v>
+        <v>0.4325699745547074</v>
       </c>
       <c r="K16">
-        <v>0.08870967741935484</v>
+        <v>0.08905852417302799</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03225806451612903</v>
+        <v>0.03307888040712468</v>
       </c>
       <c r="N16">
-        <v>0.002688172043010753</v>
+        <v>0.002544529262086514</v>
       </c>
       <c r="O16">
-        <v>0.05913978494623656</v>
+        <v>0.06361323155216285</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07795698924731183</v>
+        <v>0.07888040712468193</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01841820151679307</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2275189599133261</v>
+        <v>0.2271386430678466</v>
       </c>
       <c r="I17">
-        <v>0.08450704225352113</v>
+        <v>0.08554572271386431</v>
       </c>
       <c r="J17">
-        <v>0.4366197183098591</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K17">
-        <v>0.0866738894907909</v>
+        <v>0.08062930186823992</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02058504875406284</v>
+        <v>0.01966568338249754</v>
       </c>
       <c r="N17">
-        <v>0.001083423618634886</v>
+        <v>0.0009832841691248771</v>
       </c>
       <c r="O17">
-        <v>0.05850487540628386</v>
+        <v>0.05703048180924287</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06608884073672806</v>
+        <v>0.06686332350049164</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02830188679245283</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1839622641509434</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="I18">
-        <v>0.06839622641509434</v>
+        <v>0.07327586206896551</v>
       </c>
       <c r="J18">
-        <v>0.4834905660377358</v>
+        <v>0.478448275862069</v>
       </c>
       <c r="K18">
-        <v>0.09905660377358491</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01886792452830189</v>
+        <v>0.01939655172413793</v>
       </c>
       <c r="N18">
-        <v>0.002358490566037736</v>
+        <v>0.002155172413793103</v>
       </c>
       <c r="O18">
-        <v>0.0589622641509434</v>
+        <v>0.05818965517241379</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05660377358490566</v>
+        <v>0.05818965517241379</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01863684771033014</v>
+        <v>0.01843547583457898</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2300319488817891</v>
+        <v>0.2341803687095167</v>
       </c>
       <c r="I19">
-        <v>0.08093716719914804</v>
+        <v>0.08320876930742402</v>
       </c>
       <c r="J19">
-        <v>0.3940362087326943</v>
+        <v>0.3911310413552566</v>
       </c>
       <c r="K19">
-        <v>0.09531416400425985</v>
+        <v>0.09466865969108122</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02928647497337593</v>
+        <v>0.0293971101145989</v>
       </c>
       <c r="N19">
-        <v>0.001064962726304579</v>
+        <v>0.0009965122072745391</v>
       </c>
       <c r="O19">
-        <v>0.05644302449414271</v>
+        <v>0.05630293971101146</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09424920127795527</v>
+        <v>0.0916791230692576</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/North Dakota_A.xlsx
+++ b/team_specific_matrix/North Dakota_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1897106109324759</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C2">
-        <v>0.5466237942122186</v>
+        <v>0.5474683544303798</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05627009646302251</v>
+        <v>0.05537974683544303</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.135048231511254</v>
+        <v>0.1360759493670886</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07234726688102894</v>
+        <v>0.07120253164556962</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008333333333333333</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C3">
-        <v>0.02777777777777778</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08611111111111111</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.7486338797814208</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1277777777777778</v>
+        <v>0.1311475409836066</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1234567901234568</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6049382716049383</v>
+        <v>0.5975609756097561</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2716049382716049</v>
+        <v>0.2804878048780488</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07306889352818371</v>
+        <v>0.07261410788381743</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006263048016701462</v>
+        <v>0.006224066390041493</v>
       </c>
       <c r="E6">
-        <v>0.00208768267223382</v>
+        <v>0.002074688796680498</v>
       </c>
       <c r="F6">
-        <v>0.06889352818371608</v>
+        <v>0.06846473029045644</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2964509394572025</v>
+        <v>0.2966804979253112</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01670146137787056</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1711899791231733</v>
+        <v>0.1721991701244813</v>
       </c>
       <c r="R6">
-        <v>0.07933194154488518</v>
+        <v>0.08091286307053942</v>
       </c>
       <c r="S6">
-        <v>0.2860125260960334</v>
+        <v>0.2842323651452282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1171875</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01041666666666667</v>
+        <v>0.01023017902813299</v>
       </c>
       <c r="E7">
-        <v>0.002604166666666667</v>
+        <v>0.002557544757033248</v>
       </c>
       <c r="F7">
-        <v>0.046875</v>
+        <v>0.04603580562659847</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1666666666666667</v>
+        <v>0.1687979539641944</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0078125</v>
+        <v>0.007672634271099744</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1953125</v>
+        <v>0.1918158567774936</v>
       </c>
       <c r="R7">
-        <v>0.1015625</v>
+        <v>0.1023017902813299</v>
       </c>
       <c r="S7">
-        <v>0.3515625</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09362934362934362</v>
+        <v>0.09297912713472485</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02123552123552123</v>
+        <v>0.02087286527514232</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07625482625482626</v>
+        <v>0.07495256166982922</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1708494208494208</v>
+        <v>0.1717267552182163</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01061776061776062</v>
+        <v>0.01043643263757116</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1988416988416988</v>
+        <v>0.198292220113852</v>
       </c>
       <c r="R8">
-        <v>0.1090733590733591</v>
+        <v>0.1100569259962049</v>
       </c>
       <c r="S8">
-        <v>0.3194980694980695</v>
+        <v>0.3206831119544592</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09254498714652956</v>
+        <v>0.09</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02313624678663239</v>
+        <v>0.0225</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08740359897172237</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1670951156812339</v>
+        <v>0.17</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01799485861182519</v>
+        <v>0.0175</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1568123393316195</v>
+        <v>0.1525</v>
       </c>
       <c r="R9">
-        <v>0.1182519280205656</v>
+        <v>0.12</v>
       </c>
       <c r="S9">
-        <v>0.3367609254498715</v>
+        <v>0.3425</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0926812585499316</v>
+        <v>0.09320323014804845</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01538987688098495</v>
+        <v>0.01547779273216689</v>
       </c>
       <c r="E10">
-        <v>0.0006839945280437756</v>
+        <v>0.001009421265141319</v>
       </c>
       <c r="F10">
-        <v>0.06121751025991792</v>
+        <v>0.06056527590847914</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2523939808481532</v>
+        <v>0.2513458950201884</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02735978112175103</v>
+        <v>0.02691790040376851</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2058823529411765</v>
+        <v>0.2059219380888291</v>
       </c>
       <c r="R10">
-        <v>0.07900136798905609</v>
+        <v>0.07873485868102288</v>
       </c>
       <c r="S10">
-        <v>0.265389876880985</v>
+        <v>0.2668236877523553</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1341463414634146</v>
+        <v>0.1351888667992048</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07926829268292683</v>
+        <v>0.07952286282306163</v>
       </c>
       <c r="K11">
-        <v>0.1727642276422764</v>
+        <v>0.1749502982107356</v>
       </c>
       <c r="L11">
-        <v>0.6036585365853658</v>
+        <v>0.6003976143141153</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01016260162601626</v>
+        <v>0.009940357852882704</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7913907284768212</v>
+        <v>0.7896440129449838</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1556291390728477</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="K12">
-        <v>0.009933774834437087</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="L12">
-        <v>0.02317880794701987</v>
+        <v>0.02588996763754045</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01986754966887417</v>
+        <v>0.01941747572815534</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02415458937198068</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2028985507246377</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="I15">
-        <v>0.06038647342995169</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="J15">
-        <v>0.3671497584541063</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="K15">
-        <v>0.05797101449275362</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01690821256038647</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N15">
-        <v>0.002415458937198068</v>
+        <v>0.002380952380952381</v>
       </c>
       <c r="O15">
-        <v>0.05797101449275362</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2101449275362319</v>
+        <v>0.2095238095238095</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01526717557251908</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1908396946564886</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="I16">
-        <v>0.09414758269720101</v>
+        <v>0.09273182957393483</v>
       </c>
       <c r="J16">
-        <v>0.4325699745547074</v>
+        <v>0.4310776942355889</v>
       </c>
       <c r="K16">
-        <v>0.08905852417302799</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03307888040712468</v>
+        <v>0.03258145363408521</v>
       </c>
       <c r="N16">
-        <v>0.002544529262086514</v>
+        <v>0.002506265664160401</v>
       </c>
       <c r="O16">
-        <v>0.06361323155216285</v>
+        <v>0.06265664160401002</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07888040712468193</v>
+        <v>0.08020050125313283</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01769911504424779</v>
+        <v>0.01745877788554801</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2271386430678466</v>
+        <v>0.2250242483026188</v>
       </c>
       <c r="I17">
-        <v>0.08554572271386431</v>
+        <v>0.08632395732298739</v>
       </c>
       <c r="J17">
-        <v>0.4444444444444444</v>
+        <v>0.4442289039767217</v>
       </c>
       <c r="K17">
-        <v>0.08062930186823992</v>
+        <v>0.08244422890397672</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01966568338249754</v>
+        <v>0.01939864209505335</v>
       </c>
       <c r="N17">
-        <v>0.0009832841691248771</v>
+        <v>0.0009699321047526673</v>
       </c>
       <c r="O17">
-        <v>0.05703048180924287</v>
+        <v>0.05722599418040737</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06686332350049164</v>
+        <v>0.06692531522793405</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02586206896551724</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1896551724137931</v>
+        <v>0.1877637130801688</v>
       </c>
       <c r="I18">
-        <v>0.07327586206896551</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="J18">
-        <v>0.478448275862069</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="K18">
-        <v>0.09482758620689655</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01939655172413793</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="N18">
-        <v>0.002155172413793103</v>
+        <v>0.002109704641350211</v>
       </c>
       <c r="O18">
-        <v>0.05818965517241379</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05818965517241379</v>
+        <v>0.05696202531645569</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01843547583457898</v>
+        <v>0.01800486618004866</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2341803687095167</v>
+        <v>0.235036496350365</v>
       </c>
       <c r="I19">
-        <v>0.08320876930742402</v>
+        <v>0.08467153284671533</v>
       </c>
       <c r="J19">
-        <v>0.3911310413552566</v>
+        <v>0.3868613138686132</v>
       </c>
       <c r="K19">
-        <v>0.09466865969108122</v>
+        <v>0.09440389294403893</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0293971101145989</v>
+        <v>0.02871046228710462</v>
       </c>
       <c r="N19">
-        <v>0.0009965122072745391</v>
+        <v>0.0009732360097323601</v>
       </c>
       <c r="O19">
-        <v>0.05630293971101146</v>
+        <v>0.05693430656934306</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0916791230692576</v>
+        <v>0.09440389294403893</v>
       </c>
     </row>
   </sheetData>
